--- a/notebooks/output/HH_size_ten.xlsx
+++ b/notebooks/output/HH_size_ten.xlsx
@@ -16,11 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>p_r_21E</t>
+  </si>
+  <si>
+    <t>p_r_21M</t>
+  </si>
+  <si>
+    <t>p_r_21C</t>
+  </si>
+  <si>
     <t>p_tot_21E</t>
   </si>
   <si>
@@ -30,15 +39,6 @@
     <t>p_tot_21C</t>
   </si>
   <si>
-    <t>p_r_21E</t>
-  </si>
-  <si>
-    <t>p_r_21M</t>
-  </si>
-  <si>
-    <t>p_r_21C</t>
-  </si>
-  <si>
     <t>p_o_21E</t>
   </si>
   <si>
@@ -57,6 +57,15 @@
     <t>h_otot_21C</t>
   </si>
   <si>
+    <t>h_rtot_21E</t>
+  </si>
+  <si>
+    <t>h_rtot_21M</t>
+  </si>
+  <si>
+    <t>h_rtot_21C</t>
+  </si>
+  <si>
     <t>h_tot_21E</t>
   </si>
   <si>
@@ -66,15 +75,6 @@
     <t>h_tot_21C</t>
   </si>
   <si>
-    <t>h_rtot_21E</t>
-  </si>
-  <si>
-    <t>h_rtot_21M</t>
-  </si>
-  <si>
-    <t>h_rtot_21C</t>
-  </si>
-  <si>
     <t>a_tot_21E</t>
   </si>
   <si>
@@ -84,6 +84,15 @@
     <t>a_rtot_21E</t>
   </si>
   <si>
+    <t>p_r_13E</t>
+  </si>
+  <si>
+    <t>p_r_13M</t>
+  </si>
+  <si>
+    <t>p_r_13C</t>
+  </si>
+  <si>
     <t>p_tot_13E</t>
   </si>
   <si>
@@ -93,15 +102,6 @@
     <t>p_tot_13C</t>
   </si>
   <si>
-    <t>p_r_13E</t>
-  </si>
-  <si>
-    <t>p_r_13M</t>
-  </si>
-  <si>
-    <t>p_r_13C</t>
-  </si>
-  <si>
     <t>p_o_13E</t>
   </si>
   <si>
@@ -120,6 +120,15 @@
     <t>h_otot_13C</t>
   </si>
   <si>
+    <t>h_rtot_13E</t>
+  </si>
+  <si>
+    <t>h_rtot_13M</t>
+  </si>
+  <si>
+    <t>h_rtot_13C</t>
+  </si>
+  <si>
     <t>h_tot_13E</t>
   </si>
   <si>
@@ -129,15 +138,6 @@
     <t>h_tot_13C</t>
   </si>
   <si>
-    <t>h_rtot_13E</t>
-  </si>
-  <si>
-    <t>h_rtot_13M</t>
-  </si>
-  <si>
-    <t>h_rtot_13C</t>
-  </si>
-  <si>
     <t>a_tot_13E</t>
   </si>
   <si>
@@ -193,6 +193,42 @@
   </si>
   <si>
     <t>GEO_ID</t>
+  </si>
+  <si>
+    <t>a_tot_13M</t>
+  </si>
+  <si>
+    <t>a_tot_13C</t>
+  </si>
+  <si>
+    <t>a_otot_13M</t>
+  </si>
+  <si>
+    <t>a_otot_13C</t>
+  </si>
+  <si>
+    <t>a_rtot_13M</t>
+  </si>
+  <si>
+    <t>a_rtot_13C</t>
+  </si>
+  <si>
+    <t>a_tot_21M</t>
+  </si>
+  <si>
+    <t>a_tot_21C</t>
+  </si>
+  <si>
+    <t>a_otot_21M</t>
+  </si>
+  <si>
+    <t>a_otot_21C</t>
+  </si>
+  <si>
+    <t>a_rtot_21M</t>
+  </si>
+  <si>
+    <t>a_rtot_21C</t>
   </si>
   <si>
     <t>0455000</t>
@@ -698,22 +734,22 @@
         <v>43</v>
       </c>
       <c r="B2">
+        <v>69590</v>
+      </c>
+      <c r="C2">
+        <v>4438.001915276738</v>
+      </c>
+      <c r="D2">
+        <v>3.876812048753413</v>
+      </c>
+      <c r="E2">
         <v>135881</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>5273.218372113941</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>2.359125906952036</v>
-      </c>
-      <c r="E2">
-        <v>69590</v>
-      </c>
-      <c r="F2">
-        <v>4438.001915276738</v>
-      </c>
-      <c r="G2">
-        <v>3.876812048753413</v>
       </c>
       <c r="H2">
         <v>66291</v>
@@ -734,22 +770,22 @@
         <v>2.803151343227555</v>
       </c>
       <c r="N2">
+        <v>25808</v>
+      </c>
+      <c r="O2">
+        <v>1301.597864165426</v>
+      </c>
+      <c r="P2">
+        <v>3.065890042731799</v>
+      </c>
+      <c r="Q2">
         <v>48535</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>1548.695903010013</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>1.939747555359903</v>
-      </c>
-      <c r="Q2">
-        <v>25808</v>
-      </c>
-      <c r="R2">
-        <v>1301.597864165426</v>
-      </c>
-      <c r="S2">
-        <v>3.065890042731799</v>
       </c>
       <c r="T2">
         <v>2.799649737302977</v>
@@ -761,22 +797,22 @@
         <v>2.696450712957223</v>
       </c>
       <c r="W2">
+        <v>69543</v>
+      </c>
+      <c r="X2">
+        <v>3898.34490521298</v>
+      </c>
+      <c r="Y2">
+        <v>3.407696722954669</v>
+      </c>
+      <c r="Z2">
         <v>130535</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>4656.644929560337</v>
       </c>
-      <c r="Y2">
+      <c r="AB2">
         <v>2.168603969220584</v>
-      </c>
-      <c r="Z2">
-        <v>69543</v>
-      </c>
-      <c r="AA2">
-        <v>3898.34490521298</v>
-      </c>
-      <c r="AB2">
-        <v>3.407696722954669</v>
       </c>
       <c r="AC2">
         <v>60992</v>
@@ -797,22 +833,22 @@
         <v>2.277292549736325</v>
       </c>
       <c r="AI2">
+        <v>23584</v>
+      </c>
+      <c r="AJ2">
+        <v>991.4343145160955</v>
+      </c>
+      <c r="AK2">
+        <v>2.555527611620922</v>
+      </c>
+      <c r="AL2">
         <v>44410</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <v>1119.382419015057</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <v>1.532257677684325</v>
-      </c>
-      <c r="AL2">
-        <v>23584</v>
-      </c>
-      <c r="AM2">
-        <v>991.4343145160955</v>
-      </c>
-      <c r="AN2">
-        <v>2.555527611620922</v>
       </c>
       <c r="AO2">
         <v>2.939315469488854</v>
@@ -829,22 +865,22 @@
         <v>44</v>
       </c>
       <c r="B3">
+        <v>74541</v>
+      </c>
+      <c r="C3">
+        <v>4096.308093881611</v>
+      </c>
+      <c r="D3">
+        <v>3.340653997097789</v>
+      </c>
+      <c r="E3">
         <v>165668</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>5920.925856654515</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>2.172626593742843</v>
-      </c>
-      <c r="E3">
-        <v>74541</v>
-      </c>
-      <c r="F3">
-        <v>4096.308093881611</v>
-      </c>
-      <c r="G3">
-        <v>3.340653997097789</v>
       </c>
       <c r="H3">
         <v>91127</v>
@@ -865,22 +901,22 @@
         <v>2.388939531006065</v>
       </c>
       <c r="N3">
+        <v>31695</v>
+      </c>
+      <c r="O3">
+        <v>1541.9951361791</v>
+      </c>
+      <c r="P3">
+        <v>2.957510842426412</v>
+      </c>
+      <c r="Q3">
         <v>66863</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>1941.481650698765</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>1.765149644053974</v>
-      </c>
-      <c r="Q3">
-        <v>31695</v>
-      </c>
-      <c r="R3">
-        <v>1541.9951361791</v>
-      </c>
-      <c r="S3">
-        <v>2.957510842426412</v>
       </c>
       <c r="T3">
         <v>2.477723105454437</v>
@@ -892,22 +928,22 @@
         <v>2.351822053951727</v>
       </c>
       <c r="W3">
+        <v>73586</v>
+      </c>
+      <c r="X3">
+        <v>3779.021698799836</v>
+      </c>
+      <c r="Y3">
+        <v>3.121894964327111</v>
+      </c>
+      <c r="Z3">
         <v>158681</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>4535.55101393425</v>
       </c>
-      <c r="Y3">
+      <c r="AB3">
         <v>1.737557658858363</v>
-      </c>
-      <c r="Z3">
-        <v>73586</v>
-      </c>
-      <c r="AA3">
-        <v>3779.021698799836</v>
-      </c>
-      <c r="AB3">
-        <v>3.121894964327111</v>
       </c>
       <c r="AC3">
         <v>85095</v>
@@ -928,22 +964,22 @@
         <v>1.694055861653323</v>
       </c>
       <c r="AI3">
+        <v>28423</v>
+      </c>
+      <c r="AJ3">
+        <v>1098.145709821789</v>
+      </c>
+      <c r="AK3">
+        <v>2.348681634755937</v>
+      </c>
+      <c r="AL3">
         <v>61245</v>
       </c>
-      <c r="AJ3">
+      <c r="AM3">
         <v>1280.656472282868</v>
       </c>
-      <c r="AK3">
+      <c r="AN3">
         <v>1.271147967697499</v>
-      </c>
-      <c r="AL3">
-        <v>28423</v>
-      </c>
-      <c r="AM3">
-        <v>1098.145709821789</v>
-      </c>
-      <c r="AN3">
-        <v>2.348681634755937</v>
       </c>
       <c r="AO3">
         <v>2.590921707894522</v>
@@ -960,22 +996,22 @@
         <v>45</v>
       </c>
       <c r="B4">
+        <v>106692</v>
+      </c>
+      <c r="C4">
+        <v>5785.361872864998</v>
+      </c>
+      <c r="D4">
+        <v>3.2963458447986</v>
+      </c>
+      <c r="E4">
         <v>241055</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>8101.846271066861</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>2.043157997671422</v>
-      </c>
-      <c r="E4">
-        <v>106692</v>
-      </c>
-      <c r="F4">
-        <v>5785.361872864998</v>
-      </c>
-      <c r="G4">
-        <v>3.2963458447986</v>
       </c>
       <c r="H4">
         <v>134363</v>
@@ -996,22 +1032,22 @@
         <v>2.673446537063842</v>
       </c>
       <c r="N4">
+        <v>31681</v>
+      </c>
+      <c r="O4">
+        <v>1565.288471815978</v>
+      </c>
+      <c r="P4">
+        <v>3.003513601089236</v>
+      </c>
+      <c r="Q4">
         <v>67881</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>2069.703360387667</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>1.853505892049569</v>
-      </c>
-      <c r="Q4">
-        <v>31681</v>
-      </c>
-      <c r="R4">
-        <v>1565.288471815978</v>
-      </c>
-      <c r="S4">
-        <v>3.003513601089236</v>
       </c>
       <c r="T4">
         <v>3.551140967280977</v>
@@ -1023,22 +1059,22 @@
         <v>3.367696726744736</v>
       </c>
       <c r="W4">
+        <v>111837</v>
+      </c>
+      <c r="X4">
+        <v>5049.42234319927</v>
+      </c>
+      <c r="Y4">
+        <v>2.744670954550181</v>
+      </c>
+      <c r="Z4">
         <v>219929</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>5795.667864879767</v>
       </c>
-      <c r="Y4">
+      <c r="AB4">
         <v>1.601972613648488</v>
-      </c>
-      <c r="Z4">
-        <v>111837</v>
-      </c>
-      <c r="AA4">
-        <v>5049.42234319927</v>
-      </c>
-      <c r="AB4">
-        <v>2.744670954550181</v>
       </c>
       <c r="AC4">
         <v>108092</v>
@@ -1059,22 +1095,22 @@
         <v>1.919750954639232</v>
       </c>
       <c r="AI4">
+        <v>30255</v>
+      </c>
+      <c r="AJ4">
+        <v>1109.630118553025</v>
+      </c>
+      <c r="AK4">
+        <v>2.229539529104988</v>
+      </c>
+      <c r="AL4">
         <v>59203</v>
       </c>
-      <c r="AJ4">
+      <c r="AM4">
         <v>1231.623319038739</v>
       </c>
-      <c r="AK4">
+      <c r="AN4">
         <v>1.264643995787344</v>
-      </c>
-      <c r="AL4">
-        <v>30255</v>
-      </c>
-      <c r="AM4">
-        <v>1109.630118553025</v>
-      </c>
-      <c r="AN4">
-        <v>2.229539529104988</v>
       </c>
       <c r="AO4">
         <v>3.714828640440518</v>
@@ -1091,22 +1127,22 @@
         <v>46</v>
       </c>
       <c r="B5">
+        <v>48148</v>
+      </c>
+      <c r="C5">
+        <v>3599.489686052733</v>
+      </c>
+      <c r="D5">
+        <v>4.54461166980929</v>
+      </c>
+      <c r="E5">
         <v>123942</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>5438.546680869807</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>2.667463333481852</v>
-      </c>
-      <c r="E5">
-        <v>48148</v>
-      </c>
-      <c r="F5">
-        <v>3599.489686052733</v>
-      </c>
-      <c r="G5">
-        <v>4.54461166980929</v>
       </c>
       <c r="H5">
         <v>75794</v>
@@ -1127,22 +1163,22 @@
         <v>3.199522251853755</v>
       </c>
       <c r="N5">
+        <v>15693</v>
+      </c>
+      <c r="O5">
+        <v>1001.181302262482</v>
+      </c>
+      <c r="P5">
+        <v>3.878295115269222</v>
+      </c>
+      <c r="Q5">
         <v>39548</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>1473.240306263713</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>2.264556519465882</v>
-      </c>
-      <c r="Q5">
-        <v>15693</v>
-      </c>
-      <c r="R5">
-        <v>1001.181302262482</v>
-      </c>
-      <c r="S5">
-        <v>3.878295115269222</v>
       </c>
       <c r="T5">
         <v>3.133963790836452</v>
@@ -1154,22 +1190,22 @@
         <v>3.068119543745619</v>
       </c>
       <c r="W5">
+        <v>45826</v>
+      </c>
+      <c r="X5">
+        <v>2978.815032861221</v>
+      </c>
+      <c r="Y5">
+        <v>3.951533642932983</v>
+      </c>
+      <c r="Z5">
         <v>109898</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>3979.5005968086</v>
       </c>
-      <c r="Y5">
+      <c r="AB5">
         <v>2.201267811035499</v>
-      </c>
-      <c r="Z5">
-        <v>45826</v>
-      </c>
-      <c r="AA5">
-        <v>2978.815032861221</v>
-      </c>
-      <c r="AB5">
-        <v>3.951533642932983</v>
       </c>
       <c r="AC5">
         <v>64072</v>
@@ -1190,22 +1226,22 @@
         <v>2.439651435751698</v>
       </c>
       <c r="AI5">
+        <v>14115</v>
+      </c>
+      <c r="AJ5">
+        <v>742.5927551491463</v>
+      </c>
+      <c r="AK5">
+        <v>3.198187511611185</v>
+      </c>
+      <c r="AL5">
         <v>33332</v>
       </c>
-      <c r="AJ5">
+      <c r="AM5">
         <v>901.8353508263025</v>
       </c>
-      <c r="AK5">
+      <c r="AN5">
         <v>1.64475032039513</v>
-      </c>
-      <c r="AL5">
-        <v>14115</v>
-      </c>
-      <c r="AM5">
-        <v>742.5927551491463</v>
-      </c>
-      <c r="AN5">
-        <v>3.198187511611185</v>
       </c>
       <c r="AO5">
         <v>3.297071882875315</v>
@@ -1222,22 +1258,22 @@
         <v>47</v>
       </c>
       <c r="B6">
+        <v>16060</v>
+      </c>
+      <c r="C6">
+        <v>2277.498188802792</v>
+      </c>
+      <c r="D6">
+        <v>8.620780692474622</v>
+      </c>
+      <c r="E6">
         <v>65183</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>3733.850961139183</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>3.482224220208443</v>
-      </c>
-      <c r="E6">
-        <v>16060</v>
-      </c>
-      <c r="F6">
-        <v>2277.498188802792</v>
-      </c>
-      <c r="G6">
-        <v>8.620780692474622</v>
       </c>
       <c r="H6">
         <v>49123</v>
@@ -1258,22 +1294,22 @@
         <v>3.646784712275362</v>
       </c>
       <c r="N6">
+        <v>4283</v>
+      </c>
+      <c r="O6">
+        <v>541.2624132525738</v>
+      </c>
+      <c r="P6">
+        <v>7.682346525176211</v>
+      </c>
+      <c r="Q6">
         <v>18574</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>921.2963692536729</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>3.015282562360998</v>
-      </c>
-      <c r="Q6">
-        <v>4283</v>
-      </c>
-      <c r="R6">
-        <v>541.2624132525738</v>
-      </c>
-      <c r="S6">
-        <v>7.682346525176211</v>
       </c>
       <c r="T6">
         <v>3.509367933670723</v>
@@ -1285,22 +1321,22 @@
         <v>3.749708148494046</v>
       </c>
       <c r="W6">
+        <v>16025</v>
+      </c>
+      <c r="X6">
+        <v>2236.39061883205</v>
+      </c>
+      <c r="Y6">
+        <v>8.483669110601502</v>
+      </c>
+      <c r="Z6">
         <v>52044</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <v>2981.842718856915</v>
       </c>
-      <c r="Y6">
+      <c r="AB6">
         <v>3.482957393378055</v>
-      </c>
-      <c r="Z6">
-        <v>16025</v>
-      </c>
-      <c r="AA6">
-        <v>2236.39061883205</v>
-      </c>
-      <c r="AB6">
-        <v>8.483669110601502</v>
       </c>
       <c r="AC6">
         <v>36019</v>
@@ -1321,22 +1357,22 @@
         <v>3.67460802977824</v>
       </c>
       <c r="AI6">
+        <v>3846</v>
+      </c>
+      <c r="AJ6">
+        <v>473.6844941519619</v>
+      </c>
+      <c r="AK6">
+        <v>7.487106078742244</v>
+      </c>
+      <c r="AL6">
         <v>14455</v>
       </c>
-      <c r="AJ6">
+      <c r="AM6">
         <v>649.6298946323207</v>
       </c>
-      <c r="AK6">
+      <c r="AN6">
         <v>2.732008232791719</v>
-      </c>
-      <c r="AL6">
-        <v>3846</v>
-      </c>
-      <c r="AM6">
-        <v>473.6844941519619</v>
-      </c>
-      <c r="AN6">
-        <v>7.487106078742244</v>
       </c>
       <c r="AO6">
         <v>3.600415081286752</v>
@@ -1353,22 +1389,22 @@
         <v>48</v>
       </c>
       <c r="B7">
+        <v>74496</v>
+      </c>
+      <c r="C7">
+        <v>3806.423255498526</v>
+      </c>
+      <c r="D7">
+        <v>3.10611993895719</v>
+      </c>
+      <c r="E7">
         <v>144050</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>4897.735803409571</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>2.066884410242379</v>
-      </c>
-      <c r="E7">
-        <v>74496</v>
-      </c>
-      <c r="F7">
-        <v>3806.423255498526</v>
-      </c>
-      <c r="G7">
-        <v>3.10611993895719</v>
       </c>
       <c r="H7">
         <v>69554</v>
@@ -1389,22 +1425,22 @@
         <v>2.564895737225628</v>
       </c>
       <c r="N7">
+        <v>36363</v>
+      </c>
+      <c r="O7">
+        <v>1447.408373611263</v>
+      </c>
+      <c r="P7">
+        <v>2.41972199706867</v>
+      </c>
+      <c r="Q7">
         <v>65839</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>1797.964404541981</v>
       </c>
-      <c r="P7">
+      <c r="S7">
         <v>1.660091252851243</v>
-      </c>
-      <c r="Q7">
-        <v>36363</v>
-      </c>
-      <c r="R7">
-        <v>1447.408373611263</v>
-      </c>
-      <c r="S7">
-        <v>2.41972199706867</v>
       </c>
       <c r="T7">
         <v>2.187912939139416</v>
@@ -1416,22 +1452,22 @@
         <v>2.048675851827407</v>
       </c>
       <c r="W7">
+        <v>67202</v>
+      </c>
+      <c r="X7">
+        <v>3429.312175932661</v>
+      </c>
+      <c r="Y7">
+        <v>3.10212233690456</v>
+      </c>
+      <c r="Z7">
         <v>130594</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>3938.309916702849</v>
       </c>
-      <c r="Y7">
+      <c r="AB7">
         <v>1.833246069387442</v>
-      </c>
-      <c r="Z7">
-        <v>67202</v>
-      </c>
-      <c r="AA7">
-        <v>3429.312175932661</v>
-      </c>
-      <c r="AB7">
-        <v>3.10212233690456</v>
       </c>
       <c r="AC7">
         <v>63392</v>
@@ -1452,22 +1488,22 @@
         <v>1.90026250056333</v>
       </c>
       <c r="AI7">
+        <v>30920</v>
+      </c>
+      <c r="AJ7">
+        <v>1096.814022521594</v>
+      </c>
+      <c r="AK7">
+        <v>2.15639147701804</v>
+      </c>
+      <c r="AL7">
         <v>57595</v>
       </c>
-      <c r="AJ7">
+      <c r="AM7">
         <v>1211.211789902988</v>
       </c>
-      <c r="AK7">
+      <c r="AN7">
         <v>1.278407779194979</v>
-      </c>
-      <c r="AL7">
-        <v>30920</v>
-      </c>
-      <c r="AM7">
-        <v>1096.814022521594</v>
-      </c>
-      <c r="AN7">
-        <v>2.15639147701804</v>
       </c>
       <c r="AO7">
         <v>2.267453772028822</v>
@@ -1484,22 +1520,22 @@
         <v>49</v>
       </c>
       <c r="B8">
+        <v>32824</v>
+      </c>
+      <c r="C8">
+        <v>2707.88330620062</v>
+      </c>
+      <c r="D8">
+        <v>5.015018490808155</v>
+      </c>
+      <c r="E8">
         <v>58847</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>3483.779126178926</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>3.598822133497108</v>
-      </c>
-      <c r="E8">
-        <v>32824</v>
-      </c>
-      <c r="F8">
-        <v>2707.88330620062</v>
-      </c>
-      <c r="G8">
-        <v>5.015018490808155</v>
       </c>
       <c r="H8">
         <v>26023</v>
@@ -1520,22 +1556,22 @@
         <v>4.202721129386691</v>
       </c>
       <c r="N8">
+        <v>15986</v>
+      </c>
+      <c r="O8">
+        <v>1025.810898752787</v>
+      </c>
+      <c r="P8">
+        <v>3.900871084207749</v>
+      </c>
+      <c r="Q8">
         <v>26677</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>1180.5231890988</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>2.690119863732438</v>
-      </c>
-      <c r="Q8">
-        <v>15986</v>
-      </c>
-      <c r="R8">
-        <v>1025.810898752787</v>
-      </c>
-      <c r="S8">
-        <v>3.900871084207749</v>
       </c>
       <c r="T8">
         <v>2.20590771076208</v>
@@ -1547,22 +1583,22 @@
         <v>2.053296634555236</v>
       </c>
       <c r="W8">
+        <v>32699</v>
+      </c>
+      <c r="X8">
+        <v>2224.808980564399</v>
+      </c>
+      <c r="Y8">
+        <v>4.136112619311576</v>
+      </c>
+      <c r="Z8">
         <v>56449</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <v>2611.351948703966</v>
       </c>
-      <c r="Y8">
+      <c r="AB8">
         <v>2.81218089449434</v>
-      </c>
-      <c r="Z8">
-        <v>32699</v>
-      </c>
-      <c r="AA8">
-        <v>2224.808980564399</v>
-      </c>
-      <c r="AB8">
-        <v>4.136112619311576</v>
       </c>
       <c r="AC8">
         <v>23750</v>
@@ -1583,22 +1619,22 @@
         <v>3.320074390561112</v>
       </c>
       <c r="AI8">
+        <v>13642</v>
+      </c>
+      <c r="AJ8">
+        <v>701.2895265152617</v>
+      </c>
+      <c r="AK8">
+        <v>3.125024348261433</v>
+      </c>
+      <c r="AL8">
         <v>23632</v>
       </c>
-      <c r="AJ8">
+      <c r="AM8">
         <v>789.1609468289722</v>
       </c>
-      <c r="AK8">
+      <c r="AN8">
         <v>2.030014803555666</v>
-      </c>
-      <c r="AL8">
-        <v>13642</v>
-      </c>
-      <c r="AM8">
-        <v>701.2895265152617</v>
-      </c>
-      <c r="AN8">
-        <v>3.125024348261433</v>
       </c>
       <c r="AO8">
         <v>2.388667907921462</v>
@@ -1615,22 +1651,22 @@
         <v>50</v>
       </c>
       <c r="B9">
+        <v>37210</v>
+      </c>
+      <c r="C9">
+        <v>2074.928914445023</v>
+      </c>
+      <c r="D9">
+        <v>3.389827904295791</v>
+      </c>
+      <c r="E9">
         <v>53262</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>2474.345570044734</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>2.824079908296115</v>
-      </c>
-      <c r="E9">
-        <v>37210</v>
-      </c>
-      <c r="F9">
-        <v>2074.928914445023</v>
-      </c>
-      <c r="G9">
-        <v>3.389827904295791</v>
       </c>
       <c r="H9">
         <v>16052</v>
@@ -1651,22 +1687,22 @@
         <v>4.456709213567613</v>
       </c>
       <c r="N9">
+        <v>16346</v>
+      </c>
+      <c r="O9">
+        <v>796.6498603527148</v>
+      </c>
+      <c r="P9">
+        <v>2.962716440681191</v>
+      </c>
+      <c r="Q9">
         <v>21802</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>845.2798353208244</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>2.356884341836474</v>
-      </c>
-      <c r="Q9">
-        <v>16346</v>
-      </c>
-      <c r="R9">
-        <v>796.6498603527148</v>
-      </c>
-      <c r="S9">
-        <v>2.962716440681191</v>
       </c>
       <c r="T9">
         <v>2.442986881937437</v>
@@ -1678,22 +1714,22 @@
         <v>2.276397895509605</v>
       </c>
       <c r="W9">
+        <v>35445</v>
+      </c>
+      <c r="X9">
+        <v>2147.232870463751</v>
+      </c>
+      <c r="Y9">
+        <v>3.682631501888067</v>
+      </c>
+      <c r="Z9">
         <v>50594</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>2345.185493729654</v>
       </c>
-      <c r="Y9">
+      <c r="AB9">
         <v>2.817813727001825</v>
-      </c>
-      <c r="Z9">
-        <v>35445</v>
-      </c>
-      <c r="AA9">
-        <v>2147.232870463751</v>
-      </c>
-      <c r="AB9">
-        <v>3.682631501888067</v>
       </c>
       <c r="AC9">
         <v>15149</v>
@@ -1714,22 +1750,22 @@
         <v>4.487091712354944</v>
       </c>
       <c r="AI9">
+        <v>13670</v>
+      </c>
+      <c r="AJ9">
+        <v>568.4663578436282</v>
+      </c>
+      <c r="AK9">
+        <v>2.527960892525857</v>
+      </c>
+      <c r="AL9">
         <v>18436</v>
       </c>
-      <c r="AJ9">
+      <c r="AM9">
         <v>601.4266372551186</v>
       </c>
-      <c r="AK9">
+      <c r="AN9">
         <v>1.98312485369618</v>
-      </c>
-      <c r="AL9">
-        <v>13670</v>
-      </c>
-      <c r="AM9">
-        <v>568.4663578436282</v>
-      </c>
-      <c r="AN9">
-        <v>2.527960892525857</v>
       </c>
       <c r="AO9">
         <v>2.744304621392927</v>
@@ -1746,22 +1782,22 @@
         <v>51</v>
       </c>
       <c r="B10">
+        <v>61191</v>
+      </c>
+      <c r="C10">
+        <v>3484.230618084859</v>
+      </c>
+      <c r="D10">
+        <v>3.46141315563358</v>
+      </c>
+      <c r="E10">
         <v>178509</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>5316.404612141555</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>1.810472809257199</v>
-      </c>
-      <c r="E10">
-        <v>61191</v>
-      </c>
-      <c r="F10">
-        <v>3484.230618084859</v>
-      </c>
-      <c r="G10">
-        <v>3.46141315563358</v>
       </c>
       <c r="H10">
         <v>117318</v>
@@ -1782,22 +1818,22 @@
         <v>1.964674689706372</v>
       </c>
       <c r="N10">
+        <v>26542</v>
+      </c>
+      <c r="O10">
+        <v>1413.318435456072</v>
+      </c>
+      <c r="P10">
+        <v>3.236983434309361</v>
+      </c>
+      <c r="Q10">
         <v>71029</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>1901.591964644361</v>
       </c>
-      <c r="P10">
+      <c r="S10">
         <v>1.627480264723725</v>
-      </c>
-      <c r="Q10">
-        <v>26542</v>
-      </c>
-      <c r="R10">
-        <v>1413.318435456072</v>
-      </c>
-      <c r="S10">
-        <v>3.236983434309361</v>
       </c>
       <c r="T10">
         <v>2.513184755522392</v>
@@ -1809,22 +1845,22 @@
         <v>2.305440434029086</v>
       </c>
       <c r="W10">
+        <v>57185</v>
+      </c>
+      <c r="X10">
+        <v>3061.385470665202</v>
+      </c>
+      <c r="Y10">
+        <v>3.25439293910656</v>
+      </c>
+      <c r="Z10">
         <v>169582</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
         <v>4469.378368408743</v>
       </c>
-      <c r="Y10">
+      <c r="AB10">
         <v>1.602143704177736</v>
-      </c>
-      <c r="Z10">
-        <v>57185</v>
-      </c>
-      <c r="AA10">
-        <v>3061.385470665202</v>
-      </c>
-      <c r="AB10">
-        <v>3.25439293910656</v>
       </c>
       <c r="AC10">
         <v>112397</v>
@@ -1845,22 +1881,22 @@
         <v>1.553761147908236</v>
       </c>
       <c r="AI10">
+        <v>23216</v>
+      </c>
+      <c r="AJ10">
+        <v>1017.806956156225</v>
+      </c>
+      <c r="AK10">
+        <v>2.66509145813972</v>
+      </c>
+      <c r="AL10">
         <v>64380</v>
       </c>
-      <c r="AJ10">
+      <c r="AM10">
         <v>1315.120906989164</v>
       </c>
-      <c r="AK10">
+      <c r="AN10">
         <v>1.241791856094904</v>
-      </c>
-      <c r="AL10">
-        <v>23216</v>
-      </c>
-      <c r="AM10">
-        <v>1017.806956156225</v>
-      </c>
-      <c r="AN10">
-        <v>2.66509145813972</v>
       </c>
       <c r="AO10">
         <v>2.6340789064927</v>
@@ -1877,22 +1913,22 @@
         <v>52</v>
       </c>
       <c r="B11">
+        <v>56811</v>
+      </c>
+      <c r="C11">
+        <v>3391.907280572392</v>
+      </c>
+      <c r="D11">
+        <v>3.629490265324801</v>
+      </c>
+      <c r="E11">
         <v>170323</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>4791.799244542701</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>1.710249272865625</v>
-      </c>
-      <c r="E11">
-        <v>56811</v>
-      </c>
-      <c r="F11">
-        <v>3391.907280572392</v>
-      </c>
-      <c r="G11">
-        <v>3.629490265324801</v>
       </c>
       <c r="H11">
         <v>113512</v>
@@ -1913,22 +1949,22 @@
         <v>1.799666773154255</v>
       </c>
       <c r="N11">
+        <v>24082</v>
+      </c>
+      <c r="O11">
+        <v>1268.502660619993</v>
+      </c>
+      <c r="P11">
+        <v>3.202085530516411</v>
+      </c>
+      <c r="Q11">
         <v>70807</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>1731.503970541217</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>1.486556414378532</v>
-      </c>
-      <c r="Q11">
-        <v>24082</v>
-      </c>
-      <c r="R11">
-        <v>1268.502660619993</v>
-      </c>
-      <c r="S11">
-        <v>3.202085530516411</v>
       </c>
       <c r="T11">
         <v>2.405454262996596</v>
@@ -1940,22 +1976,22 @@
         <v>2.359064861722448</v>
       </c>
       <c r="W11">
+        <v>58409</v>
+      </c>
+      <c r="X11">
+        <v>3195.157899071656</v>
+      </c>
+      <c r="Y11">
+        <v>3.325421129276624</v>
+      </c>
+      <c r="Z11">
         <v>172828</v>
       </c>
-      <c r="X11">
+      <c r="AA11">
         <v>3975.516444438383</v>
       </c>
-      <c r="Y11">
+      <c r="AB11">
         <v>1.39834246872442</v>
-      </c>
-      <c r="Z11">
-        <v>58409</v>
-      </c>
-      <c r="AA11">
-        <v>3195.157899071656</v>
-      </c>
-      <c r="AB11">
-        <v>3.325421129276624</v>
       </c>
       <c r="AC11">
         <v>114419</v>
@@ -1976,22 +2012,22 @@
         <v>1.325088202866461</v>
       </c>
       <c r="AI11">
+        <v>23616</v>
+      </c>
+      <c r="AJ11">
+        <v>1016.715791162899</v>
+      </c>
+      <c r="AK11">
+        <v>2.617142237200731</v>
+      </c>
+      <c r="AL11">
         <v>69440</v>
       </c>
-      <c r="AJ11">
+      <c r="AM11">
         <v>1238.310542634601</v>
       </c>
-      <c r="AK11">
+      <c r="AN11">
         <v>1.084061587475839</v>
-      </c>
-      <c r="AL11">
-        <v>23616</v>
-      </c>
-      <c r="AM11">
-        <v>1016.715791162899</v>
-      </c>
-      <c r="AN11">
-        <v>2.617142237200731</v>
       </c>
       <c r="AO11">
         <v>2.488882488479263</v>
@@ -2008,22 +2044,22 @@
         <v>53</v>
       </c>
       <c r="B12">
+        <v>33101</v>
+      </c>
+      <c r="C12">
+        <v>3605.060887141853</v>
+      </c>
+      <c r="D12">
+        <v>6.620725582798769</v>
+      </c>
+      <c r="E12">
         <v>93069</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>4717.535373476282</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>3.081372593074166</v>
-      </c>
-      <c r="E12">
-        <v>33101</v>
-      </c>
-      <c r="F12">
-        <v>3605.060887141853</v>
-      </c>
-      <c r="G12">
-        <v>6.620725582798769</v>
       </c>
       <c r="H12">
         <v>59968</v>
@@ -2044,22 +2080,22 @@
         <v>3.468279889056922</v>
       </c>
       <c r="N12">
+        <v>8609</v>
+      </c>
+      <c r="O12">
+        <v>829.7451415946947</v>
+      </c>
+      <c r="P12">
+        <v>5.859035211928809</v>
+      </c>
+      <c r="Q12">
         <v>24874</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>1100.737934296806</v>
       </c>
-      <c r="P12">
+      <c r="S12">
         <v>2.690124633738983</v>
-      </c>
-      <c r="Q12">
-        <v>8609</v>
-      </c>
-      <c r="R12">
-        <v>829.7451415946947</v>
-      </c>
-      <c r="S12">
-        <v>5.859035211928809</v>
       </c>
       <c r="T12">
         <v>3.741617753477527</v>
@@ -2071,22 +2107,22 @@
         <v>3.844929724706702</v>
       </c>
       <c r="W12">
+        <v>33607</v>
+      </c>
+      <c r="X12">
+        <v>2829.514622687078</v>
+      </c>
+      <c r="Y12">
+        <v>5.118188709033929</v>
+      </c>
+      <c r="Z12">
         <v>75291</v>
       </c>
-      <c r="X12">
+      <c r="AA12">
         <v>3421.149368267922</v>
       </c>
-      <c r="Y12">
+      <c r="AB12">
         <v>2.762250547525386</v>
-      </c>
-      <c r="Z12">
-        <v>33607</v>
-      </c>
-      <c r="AA12">
-        <v>2829.514622687078</v>
-      </c>
-      <c r="AB12">
-        <v>5.118188709033929</v>
       </c>
       <c r="AC12">
         <v>41684</v>
@@ -2107,22 +2143,22 @@
         <v>3.655473356837487</v>
       </c>
       <c r="AI12">
+        <v>8747</v>
+      </c>
+      <c r="AJ12">
+        <v>648.452002849864</v>
+      </c>
+      <c r="AK12">
+        <v>4.506639378224434</v>
+      </c>
+      <c r="AL12">
         <v>20523</v>
       </c>
-      <c r="AJ12">
+      <c r="AM12">
         <v>801.5840567276772</v>
       </c>
-      <c r="AK12">
+      <c r="AN12">
         <v>2.374336797095399</v>
-      </c>
-      <c r="AL12">
-        <v>8747</v>
-      </c>
-      <c r="AM12">
-        <v>648.452002849864</v>
-      </c>
-      <c r="AN12">
-        <v>4.506639378224434</v>
       </c>
       <c r="AO12">
         <v>3.668615699459143</v>
@@ -2139,22 +2175,22 @@
         <v>54</v>
       </c>
       <c r="B13">
+        <v>23763</v>
+      </c>
+      <c r="C13">
+        <v>2403.551122818069</v>
+      </c>
+      <c r="D13">
+        <v>6.148740910764491</v>
+      </c>
+      <c r="E13">
         <v>79661</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>3534.033814212875</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>2.696863990195593</v>
-      </c>
-      <c r="E13">
-        <v>23763</v>
-      </c>
-      <c r="F13">
-        <v>2403.551122818069</v>
-      </c>
-      <c r="G13">
-        <v>6.148740910764491</v>
       </c>
       <c r="H13">
         <v>55898</v>
@@ -2175,22 +2211,22 @@
         <v>2.478788302491577</v>
       </c>
       <c r="N13">
+        <v>10140</v>
+      </c>
+      <c r="O13">
+        <v>791.8408931092155</v>
+      </c>
+      <c r="P13">
+        <v>4.74716217999206</v>
+      </c>
+      <c r="Q13">
         <v>32116</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>1111.789548430817</v>
       </c>
-      <c r="P13">
+      <c r="S13">
         <v>2.104433640119189</v>
-      </c>
-      <c r="Q13">
-        <v>10140</v>
-      </c>
-      <c r="R13">
-        <v>791.8408931092155</v>
-      </c>
-      <c r="S13">
-        <v>4.74716217999206</v>
       </c>
       <c r="T13">
         <v>2.480414746543779</v>
@@ -2202,22 +2238,22 @@
         <v>2.343491124260355</v>
       </c>
       <c r="W13">
+        <v>24440</v>
+      </c>
+      <c r="X13">
+        <v>1769.633860435542</v>
+      </c>
+      <c r="Y13">
+        <v>4.401658202546879</v>
+      </c>
+      <c r="Z13">
         <v>80540</v>
       </c>
-      <c r="X13">
+      <c r="AA13">
         <v>2312.777767101716</v>
       </c>
-      <c r="Y13">
+      <c r="AB13">
         <v>1.745646798322355</v>
-      </c>
-      <c r="Z13">
-        <v>24440</v>
-      </c>
-      <c r="AA13">
-        <v>1769.633860435542</v>
-      </c>
-      <c r="AB13">
-        <v>4.401658202546879</v>
       </c>
       <c r="AC13">
         <v>56100</v>
@@ -2238,22 +2274,22 @@
         <v>1.82176913486401</v>
       </c>
       <c r="AI13">
+        <v>10543</v>
+      </c>
+      <c r="AJ13">
+        <v>605.3527897020051</v>
+      </c>
+      <c r="AK13">
+        <v>3.490426034716159</v>
+      </c>
+      <c r="AL13">
         <v>31659</v>
       </c>
-      <c r="AJ13">
+      <c r="AM13">
         <v>749.3183569084639</v>
       </c>
-      <c r="AK13">
+      <c r="AN13">
         <v>1.438809434826465</v>
-      </c>
-      <c r="AL13">
-        <v>10543</v>
-      </c>
-      <c r="AM13">
-        <v>605.3527897020051</v>
-      </c>
-      <c r="AN13">
-        <v>3.490426034716159</v>
       </c>
       <c r="AO13">
         <v>2.543984333049054</v>
@@ -2270,22 +2306,22 @@
         <v>55</v>
       </c>
       <c r="B14">
+        <v>12925</v>
+      </c>
+      <c r="C14">
+        <v>1454.068774164414</v>
+      </c>
+      <c r="D14">
+        <v>6.838935284412238</v>
+      </c>
+      <c r="E14">
         <v>64236</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>2938.811664601868</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>2.781168893165672</v>
-      </c>
-      <c r="E14">
-        <v>12925</v>
-      </c>
-      <c r="F14">
-        <v>1454.068774164414</v>
-      </c>
-      <c r="G14">
-        <v>6.838935284412238</v>
       </c>
       <c r="H14">
         <v>51311</v>
@@ -2306,22 +2342,22 @@
         <v>2.587037283800453</v>
       </c>
       <c r="N14">
+        <v>6304</v>
+      </c>
+      <c r="O14">
+        <v>617.2195719515057</v>
+      </c>
+      <c r="P14">
+        <v>5.951926812054543</v>
+      </c>
+      <c r="Q14">
         <v>24746</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>929.8392334161857</v>
       </c>
-      <c r="P14">
+      <c r="S14">
         <v>2.284214877664514</v>
-      </c>
-      <c r="Q14">
-        <v>6304</v>
-      </c>
-      <c r="R14">
-        <v>617.2195719515057</v>
-      </c>
-      <c r="S14">
-        <v>5.951926812054543</v>
       </c>
       <c r="T14">
         <v>2.595813464802392</v>
@@ -2333,22 +2369,22 @@
         <v>2.050285532994924</v>
       </c>
       <c r="W14">
+        <v>12983</v>
+      </c>
+      <c r="X14">
+        <v>1566.780456860501</v>
+      </c>
+      <c r="Y14">
+        <v>7.336132833328694</v>
+      </c>
+      <c r="Z14">
         <v>54343</v>
       </c>
-      <c r="X14">
+      <c r="AA14">
         <v>2131.84098844168</v>
       </c>
-      <c r="Y14">
+      <c r="AB14">
         <v>2.384763389318875</v>
-      </c>
-      <c r="Z14">
-        <v>12983</v>
-      </c>
-      <c r="AA14">
-        <v>1566.780456860501</v>
-      </c>
-      <c r="AB14">
-        <v>7.336132833328694</v>
       </c>
       <c r="AC14">
         <v>41360</v>
@@ -2369,22 +2405,22 @@
         <v>2.421600350769554</v>
       </c>
       <c r="AI14">
+        <v>5694</v>
+      </c>
+      <c r="AJ14">
+        <v>542.5615172494267</v>
+      </c>
+      <c r="AK14">
+        <v>5.792494389651632</v>
+      </c>
+      <c r="AL14">
         <v>20914</v>
       </c>
-      <c r="AJ14">
+      <c r="AM14">
         <v>694.2182653892074</v>
       </c>
-      <c r="AK14">
+      <c r="AN14">
         <v>2.017869286637759</v>
-      </c>
-      <c r="AL14">
-        <v>5694</v>
-      </c>
-      <c r="AM14">
-        <v>542.5615172494267</v>
-      </c>
-      <c r="AN14">
-        <v>5.792494389651632</v>
       </c>
       <c r="AO14">
         <v>2.598402983647317</v>
@@ -2401,22 +2437,22 @@
         <v>56</v>
       </c>
       <c r="B15">
+        <v>6621</v>
+      </c>
+      <c r="C15">
+        <v>1266.092413688669</v>
+      </c>
+      <c r="D15">
+        <v>11.62454375103504</v>
+      </c>
+      <c r="E15">
         <v>22836</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>1992.088351454322</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>5.303012604356696</v>
-      </c>
-      <c r="E15">
-        <v>6621</v>
-      </c>
-      <c r="F15">
-        <v>1266.092413688669</v>
-      </c>
-      <c r="G15">
-        <v>11.62454375103504</v>
       </c>
       <c r="H15">
         <v>16215</v>
@@ -2437,22 +2473,22 @@
         <v>5.833671060776889</v>
       </c>
       <c r="N15">
+        <v>2708</v>
+      </c>
+      <c r="O15">
+        <v>489.2310292694036</v>
+      </c>
+      <c r="P15">
+        <v>10.98245498577677</v>
+      </c>
+      <c r="Q15">
         <v>8738</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>728.8504647731248</v>
       </c>
-      <c r="P15">
+      <c r="S15">
         <v>5.070613313703864</v>
-      </c>
-      <c r="Q15">
-        <v>2708</v>
-      </c>
-      <c r="R15">
-        <v>489.2310292694036</v>
-      </c>
-      <c r="S15">
-        <v>10.98245498577677</v>
       </c>
       <c r="T15">
         <v>2.613412680247196</v>
@@ -2464,22 +2500,22 @@
         <v>2.444977843426883</v>
       </c>
       <c r="W15">
+        <v>3632</v>
+      </c>
+      <c r="X15">
+        <v>1002.727779609202</v>
+      </c>
+      <c r="Y15">
+        <v>16.78306608614413</v>
+      </c>
+      <c r="Z15">
         <v>14384</v>
       </c>
-      <c r="X15">
+      <c r="AA15">
         <v>1266.85279334262</v>
       </c>
-      <c r="Y15">
+      <c r="AB15">
         <v>5.354027242962546</v>
-      </c>
-      <c r="Z15">
-        <v>3632</v>
-      </c>
-      <c r="AA15">
-        <v>1002.727779609202</v>
-      </c>
-      <c r="AB15">
-        <v>16.78306608614413</v>
       </c>
       <c r="AC15">
         <v>10752</v>
@@ -2500,22 +2536,22 @@
         <v>6.260603905787606</v>
       </c>
       <c r="AI15">
+        <v>1315</v>
+      </c>
+      <c r="AJ15">
+        <v>281.4515944172284</v>
+      </c>
+      <c r="AK15">
+        <v>13.01104138209939</v>
+      </c>
+      <c r="AL15">
         <v>5074</v>
       </c>
-      <c r="AJ15">
+      <c r="AM15">
         <v>389.779424803311</v>
       </c>
-      <c r="AK15">
+      <c r="AN15">
         <v>4.669845853445733</v>
-      </c>
-      <c r="AL15">
-        <v>1315</v>
-      </c>
-      <c r="AM15">
-        <v>281.4515944172284</v>
-      </c>
-      <c r="AN15">
-        <v>13.01104138209939</v>
       </c>
       <c r="AO15">
         <v>2.834844304296413</v>
@@ -2532,22 +2568,22 @@
         <v>57</v>
       </c>
       <c r="B16">
+        <v>818</v>
+      </c>
+      <c r="C16">
+        <v>563.2992100118728</v>
+      </c>
+      <c r="D16">
+        <v>41.86199641886377</v>
+      </c>
+      <c r="E16">
         <v>3653</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>665.7229153333991</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>11.07842270346809</v>
-      </c>
-      <c r="E16">
-        <v>818</v>
-      </c>
-      <c r="F16">
-        <v>563.2992100118728</v>
-      </c>
-      <c r="G16">
-        <v>41.86199641886377</v>
       </c>
       <c r="H16">
         <v>2835</v>
@@ -2568,22 +2604,22 @@
         <v>10.96241703821952</v>
       </c>
       <c r="N16">
+        <v>231</v>
+      </c>
+      <c r="O16">
+        <v>155.3512149936395</v>
+      </c>
+      <c r="P16">
+        <v>40.8824366093342</v>
+      </c>
+      <c r="Q16">
         <v>1149</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>191.0340283823801</v>
       </c>
-      <c r="P16">
+      <c r="S16">
         <v>10.10705904605194</v>
-      </c>
-      <c r="Q16">
-        <v>231</v>
-      </c>
-      <c r="R16">
-        <v>155.3512149936395</v>
-      </c>
-      <c r="S16">
-        <v>40.8824366093342</v>
       </c>
       <c r="T16">
         <v>3.179286335944299</v>
@@ -2595,22 +2631,22 @@
         <v>3.541125541125541</v>
       </c>
       <c r="W16">
+        <v>1903</v>
+      </c>
+      <c r="X16">
+        <v>860.321451551686</v>
+      </c>
+      <c r="Y16">
+        <v>27.48248890495046</v>
+      </c>
+      <c r="Z16">
         <v>5601</v>
       </c>
-      <c r="X16">
+      <c r="AA16">
         <v>892.4668061054148</v>
       </c>
-      <c r="Y16">
+      <c r="AB16">
         <v>9.686359807713613</v>
-      </c>
-      <c r="Z16">
-        <v>1903</v>
-      </c>
-      <c r="AA16">
-        <v>860.321451551686</v>
-      </c>
-      <c r="AB16">
-        <v>27.48248890495046</v>
       </c>
       <c r="AC16">
         <v>3698</v>
@@ -2631,22 +2667,22 @@
         <v>9.841680465372807</v>
       </c>
       <c r="AI16">
+        <v>428</v>
+      </c>
+      <c r="AJ16">
+        <v>166.8682114724072</v>
+      </c>
+      <c r="AK16">
+        <v>23.70085098889401</v>
+      </c>
+      <c r="AL16">
         <v>1771</v>
       </c>
-      <c r="AJ16">
+      <c r="AM16">
         <v>220.6762334280699</v>
       </c>
-      <c r="AK16">
+      <c r="AN16">
         <v>7.574798756324709</v>
-      </c>
-      <c r="AL16">
-        <v>428</v>
-      </c>
-      <c r="AM16">
-        <v>166.8682114724072</v>
-      </c>
-      <c r="AN16">
-        <v>23.70085098889401</v>
       </c>
       <c r="AO16">
         <v>3.162619988706945</v>
@@ -2665,200 +2701,308 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>42</v>
+      <c r="BC1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B2">
+        <v>2.814030401199966</v>
+      </c>
+      <c r="E2">
+        <v>579876</v>
+      </c>
+      <c r="F2">
+        <v>2997</v>
+      </c>
+      <c r="G2">
+        <v>0.3141851876056679</v>
+      </c>
+      <c r="H2">
+        <v>2.844261838246052</v>
+      </c>
+      <c r="K2">
+        <v>2.776340817301429</v>
+      </c>
+      <c r="N2">
         <v>1572068</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>2123</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.08209425467592904</v>
+      </c>
+      <c r="Q2">
+        <v>649848</v>
+      </c>
+      <c r="R2">
+        <v>10223</v>
+      </c>
+      <c r="S2">
+        <v>0.9563143482250458</v>
+      </c>
+      <c r="T2">
+        <v>639308</v>
+      </c>
+      <c r="U2">
+        <v>8788</v>
+      </c>
+      <c r="V2">
+        <v>0.8356299686726243</v>
+      </c>
+      <c r="W2">
+        <v>2.711041670977933</v>
+      </c>
+      <c r="Z2">
+        <v>287078</v>
+      </c>
+      <c r="AA2">
+        <v>3082</v>
+      </c>
+      <c r="AB2">
+        <v>0.652629679391329</v>
+      </c>
+      <c r="AC2">
+        <v>230270</v>
+      </c>
+      <c r="AD2">
+        <v>2661</v>
+      </c>
+      <c r="AE2">
+        <v>0.7024923695363299</v>
+      </c>
+      <c r="AF2">
+        <v>517348</v>
+      </c>
+      <c r="AG2">
+        <v>3128</v>
+      </c>
+      <c r="AH2">
+        <v>0.3675513883959937</v>
+      </c>
+      <c r="AI2">
+        <v>254818</v>
+      </c>
+      <c r="AJ2">
+        <v>3424</v>
+      </c>
+      <c r="AK2">
+        <v>0.816841418802969</v>
+      </c>
+      <c r="AL2">
+        <v>2.837093687895698</v>
+      </c>
+      <c r="AO2">
+        <v>1455833</v>
+      </c>
+      <c r="AP2">
+        <v>1104</v>
+      </c>
+      <c r="AQ2">
+        <v>0.0460990113605606</v>
+      </c>
+      <c r="AR2">
+        <v>2.550243703349057</v>
+      </c>
+      <c r="AU2">
+        <v>816525</v>
+      </c>
+      <c r="AV2">
+        <v>8870</v>
+      </c>
+      <c r="AW2">
+        <v>0.660371362106205</v>
+      </c>
+      <c r="AX2">
+        <v>325058</v>
+      </c>
+      <c r="AY2">
+        <v>3574</v>
+      </c>
+      <c r="AZ2">
+        <v>0.6683866808076392</v>
+      </c>
+      <c r="BA2">
         <v>922220</v>
       </c>
-      <c r="E2">
+      <c r="BB2">
         <v>10456</v>
       </c>
-      <c r="F2">
-        <v>649848</v>
-      </c>
-      <c r="G2">
-        <v>10223</v>
-      </c>
-      <c r="H2">
-        <v>579876</v>
-      </c>
-      <c r="I2">
-        <v>2997</v>
-      </c>
-      <c r="J2">
-        <v>325058</v>
-      </c>
-      <c r="K2">
-        <v>3574</v>
-      </c>
-      <c r="L2">
-        <v>254818</v>
-      </c>
-      <c r="M2">
-        <v>3424</v>
-      </c>
-      <c r="N2">
-        <v>2.711041670977933</v>
-      </c>
-      <c r="O2">
-        <v>2.837093687895698</v>
-      </c>
-      <c r="P2">
-        <v>2.550243703349057</v>
-      </c>
-      <c r="Q2">
-        <v>1455833</v>
-      </c>
-      <c r="R2">
-        <v>1104</v>
-      </c>
-      <c r="S2">
-        <v>816525</v>
-      </c>
-      <c r="T2">
-        <v>8870</v>
-      </c>
-      <c r="U2">
-        <v>639308</v>
-      </c>
-      <c r="V2">
-        <v>8788</v>
-      </c>
-      <c r="W2">
-        <v>517348</v>
-      </c>
-      <c r="X2">
-        <v>3128</v>
-      </c>
-      <c r="Y2">
-        <v>287078</v>
-      </c>
-      <c r="Z2">
-        <v>3082</v>
-      </c>
-      <c r="AA2">
-        <v>230270</v>
-      </c>
-      <c r="AB2">
-        <v>2661</v>
-      </c>
-      <c r="AC2">
-        <v>2.814030401199966</v>
-      </c>
-      <c r="AD2">
-        <v>2.844261838246052</v>
-      </c>
-      <c r="AE2">
-        <v>2.776340817301429</v>
+      <c r="BC2">
+        <v>0.6892315285983295</v>
       </c>
     </row>
   </sheetData>
@@ -2868,200 +3012,308 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>42</v>
+      <c r="BC1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:55">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B2">
+        <v>2.62528315836725</v>
+      </c>
+      <c r="E2">
+        <v>124010992</v>
+      </c>
+      <c r="F2">
+        <v>196755</v>
+      </c>
+      <c r="G2">
+        <v>0.0964494363012291</v>
+      </c>
+      <c r="H2">
+        <v>2.691334506371569</v>
+      </c>
+      <c r="K2">
+        <v>2.502946649221123</v>
+      </c>
+      <c r="N2">
         <v>321899278</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>106322071</v>
+      </c>
+      <c r="R2">
+        <v>691099</v>
+      </c>
+      <c r="S2">
+        <v>0.3951399447856663</v>
+      </c>
+      <c r="T2">
+        <v>101455731</v>
+      </c>
+      <c r="U2">
+        <v>704274</v>
+      </c>
+      <c r="V2">
+        <v>0.4219870942385801</v>
+      </c>
+      <c r="W2">
+        <v>2.595731820288963</v>
+      </c>
+      <c r="Z2">
+        <v>75075700</v>
+      </c>
+      <c r="AA2">
+        <v>345645</v>
+      </c>
+      <c r="AB2">
+        <v>0.2798755669723155</v>
+      </c>
+      <c r="AC2">
+        <v>40534516</v>
+      </c>
+      <c r="AD2">
+        <v>114260</v>
+      </c>
+      <c r="AE2">
+        <v>0.171357582178481</v>
+      </c>
+      <c r="AF2">
+        <v>115610216</v>
+      </c>
+      <c r="AG2">
+        <v>238223</v>
+      </c>
+      <c r="AH2">
+        <v>0.1252626440675971</v>
+      </c>
+      <c r="AI2">
+        <v>43858831</v>
+      </c>
+      <c r="AJ2">
+        <v>146712</v>
+      </c>
+      <c r="AK2">
+        <v>0.2033493007139603</v>
+      </c>
+      <c r="AL2">
+        <v>2.689599435753204</v>
+      </c>
+      <c r="AO2">
+        <v>303509553</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>2.424188437671766</v>
+      </c>
+      <c r="AU2">
+        <v>202053822</v>
+      </c>
+      <c r="AV2">
+        <v>704205</v>
+      </c>
+      <c r="AW2">
+        <v>0.2118683733172128</v>
+      </c>
+      <c r="AX2">
+        <v>80152161</v>
+      </c>
+      <c r="AY2">
+        <v>337611</v>
+      </c>
+      <c r="AZ2">
+        <v>0.2560562908040958</v>
+      </c>
+      <c r="BA2">
         <v>215577207</v>
       </c>
-      <c r="E2">
+      <c r="BB2">
         <v>690800</v>
       </c>
-      <c r="F2">
-        <v>106322071</v>
-      </c>
-      <c r="G2">
-        <v>691099</v>
-      </c>
-      <c r="H2">
-        <v>124010992</v>
-      </c>
-      <c r="I2">
-        <v>196755</v>
-      </c>
-      <c r="J2">
-        <v>80152161</v>
-      </c>
-      <c r="K2">
-        <v>337611</v>
-      </c>
-      <c r="L2">
-        <v>43858831</v>
-      </c>
-      <c r="M2">
-        <v>146712</v>
-      </c>
-      <c r="N2">
-        <v>2.595731820288963</v>
-      </c>
-      <c r="O2">
-        <v>2.689599435753204</v>
-      </c>
-      <c r="P2">
-        <v>2.424188437671766</v>
-      </c>
-      <c r="Q2">
-        <v>303509553</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>202053822</v>
-      </c>
-      <c r="T2">
-        <v>704205</v>
-      </c>
-      <c r="U2">
-        <v>101455731</v>
-      </c>
-      <c r="V2">
-        <v>704274</v>
-      </c>
-      <c r="W2">
-        <v>115610216</v>
-      </c>
-      <c r="X2">
-        <v>238223</v>
-      </c>
-      <c r="Y2">
-        <v>75075700</v>
-      </c>
-      <c r="Z2">
-        <v>345645</v>
-      </c>
-      <c r="AA2">
-        <v>40534516</v>
-      </c>
-      <c r="AB2">
-        <v>114260</v>
-      </c>
-      <c r="AC2">
-        <v>2.62528315836725</v>
-      </c>
-      <c r="AD2">
-        <v>2.691334506371569</v>
-      </c>
-      <c r="AE2">
-        <v>2.502946649221123</v>
+      <c r="BC2">
+        <v>0.1947975927373638</v>
       </c>
     </row>
   </sheetData>
